--- a/half_data/data_to_float.xlsx
+++ b/half_data/data_to_float.xlsx
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X2">
         <v>1.4e-05</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X3">
         <v>1.4e-05</v>
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>100.75</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <v>7.700000000000001e-06</v>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>100.7</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X5">
         <v>1.4e-06</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>100.7</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>9e-06</v>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>101.25</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>4.5e-06</v>
@@ -1152,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>102</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>1e-10</v>
@@ -1247,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>99.78</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X9">
         <v>1e-10</v>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>99.81</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X10">
         <v>1e-10</v>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>102.3</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X11">
         <v>2.4e-06</v>
@@ -1541,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>102.25</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <v>1e-10</v>
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>99.94</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X13">
         <v>8.1e-06</v>
@@ -1734,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>99.47</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X14">
         <v>2.9e-06</v>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>102.15</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>9.300000000000001e-06</v>
@@ -1924,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>99.84</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X16">
         <v>1.5e-06</v>
@@ -2019,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>100.55</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X17">
         <v>2.5e-06</v>
@@ -2114,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>100.5</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>1.4e-05</v>
@@ -2209,7 +2209,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>100.4</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X19">
         <v>1.2e-05</v>
@@ -2304,7 +2304,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>100.45</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X20">
         <v>2.8e-06</v>
@@ -2399,7 +2399,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>100.55</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X21">
         <v>1.3e-05</v>
@@ -2494,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>102.1</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>3.1e-06</v>
@@ -2589,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>100.55</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X23">
         <v>4.8e-06</v>
@@ -2684,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>100.55</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X24">
         <v>1.5e-05</v>
@@ -2779,7 +2779,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>100.5</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X25">
         <v>3.1e-07</v>
@@ -2874,7 +2874,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>100.4</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>1.5e-05</v>
@@ -2972,7 +2972,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>102.15</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <v>1.6e-07</v>
@@ -3070,7 +3070,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>100.45</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X28">
         <v>5.3e-06</v>
@@ -3165,7 +3165,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>100.5</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X29">
         <v>1.1e-05</v>
@@ -3260,7 +3260,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>100.5</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X30">
         <v>4.5e-06</v>
@@ -3355,7 +3355,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>100.3</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>1e-10</v>
@@ -3453,7 +3453,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>100.3</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>3.2e-06</v>
@@ -3551,7 +3551,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>100.25</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X33">
         <v>6e-06</v>
@@ -3646,7 +3646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>100.1</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>1.3e-06</v>
@@ -3741,7 +3741,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>100.1</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>8e-06</v>
@@ -3836,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>102.55</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X36">
         <v>1.3e-05</v>
@@ -3934,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>102.6</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X37">
         <v>2.6e-06</v>
@@ -4032,7 +4032,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>102.3</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X38">
         <v>2.3e-06</v>
@@ -4130,7 +4130,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>102.05</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X39">
         <v>5.5e-06</v>
@@ -4228,7 +4228,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>102.25</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X40">
         <v>6e-06</v>
@@ -4326,7 +4326,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>102.25</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X41">
         <v>2e-06</v>
@@ -4424,7 +4424,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>100.65</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X42">
         <v>6.5e-06</v>
@@ -4522,7 +4522,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>102.25</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X43">
         <v>8.899999999999999e-06</v>
@@ -4620,7 +4620,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>102.05</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X44">
         <v>5.9e-06</v>
@@ -4715,7 +4715,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>102.45</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X45">
         <v>6.5e-06</v>
@@ -4810,7 +4810,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>101</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X46">
         <v>3.9e-06</v>
@@ -4908,7 +4908,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>102.4</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X47">
         <v>1.4e-05</v>
@@ -5003,7 +5003,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>101</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X48">
         <v>5.5e-06</v>
@@ -5101,7 +5101,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>102.4</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X49">
         <v>1.5e-05</v>
@@ -5199,7 +5199,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>100.95</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>2.1e-06</v>
@@ -5297,7 +5297,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>102.45</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X51">
         <v>6.9e-06</v>
@@ -5392,7 +5392,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>100.95</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X52">
         <v>2.7e-06</v>
@@ -5487,7 +5487,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>100.5</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X53">
         <v>1e-10</v>
@@ -5582,7 +5582,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>99.48</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X54">
         <v>4.3e-06</v>
